--- a/Project/inovações.xlsx
+++ b/Project/inovações.xlsx
@@ -7,9 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="André Luís Alice Raabe" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cesar Albenes Zeferino" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Valdir Cechinel Filho" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tabela" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="André Luís Alice Raabe" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cesar Albenes Zeferino" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Valdir Cechinel Filho" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,13 +20,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -48,9 +52,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -130,27 +137,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="AndreLuisAliceRaabe" displayName="AndreLuisAliceRaabe" ref="A1:E2" headerRowCount="1">
-  <autoFilter ref="A1:E2"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Tipo de Produção"/>
-    <tableColumn id="2" name="Título"/>
-    <tableColumn id="3" name="Peso"/>
-    <tableColumn id="4" name="Aprovado(a)"/>
-    <tableColumn id="5" name="Pontos"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela" displayName="Tabela" ref="A1:B4" headerRowCount="1">
+  <autoFilter ref="A1:B4"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Professor"/>
+    <tableColumn id="2" name="Pontuação"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="CesarAlbenesZeferino" displayName="CesarAlbenesZeferino" ref="A1:E6" headerRowCount="1">
-  <autoFilter ref="A1:E6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AndreLuisAliceRaabe" displayName="AndreLuisAliceRaabe" ref="A1:E2" headerRowCount="1">
+  <autoFilter ref="A1:E2"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Tipo de Produção"/>
     <tableColumn id="2" name="Título"/>
     <tableColumn id="3" name="Peso"/>
-    <tableColumn id="4" name="Aprovado(a)"/>
+    <tableColumn id="4" name="Comprovado"/>
     <tableColumn id="5" name="Pontos"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
@@ -158,13 +162,27 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ValdirCechinelFilho" displayName="ValdirCechinelFilho" ref="A1:E13" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="CesarAlbenesZeferino" displayName="CesarAlbenesZeferino" ref="A1:E6" headerRowCount="1">
+  <autoFilter ref="A1:E6"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Tipo de Produção"/>
+    <tableColumn id="2" name="Título"/>
+    <tableColumn id="3" name="Peso"/>
+    <tableColumn id="4" name="Comprovado"/>
+    <tableColumn id="5" name="Pontos"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ValdirCechinelFilho" displayName="ValdirCechinelFilho" ref="A1:E13" headerRowCount="1">
   <autoFilter ref="A1:E13"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Tipo de Produção"/>
     <tableColumn id="2" name="Título"/>
     <tableColumn id="3" name="Peso"/>
-    <tableColumn id="4" name="Aprovado(a)"/>
+    <tableColumn id="4" name="Comprovado"/>
     <tableColumn id="5" name="Pontos"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
@@ -460,7 +478,78 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Professor</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Pontuação</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>André Luís Alice Raabe</t>
+        </is>
+      </c>
+      <c r="B2" s="1">
+        <f>'André Luís Alice Raabe'!E3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cesar Albenes Zeferino</t>
+        </is>
+      </c>
+      <c r="B3" s="1">
+        <f>'Cesar Albenes Zeferino'!E7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Valdir Cechinel Filho</t>
+        </is>
+      </c>
+      <c r="B4" s="1">
+        <f>'Valdir Cechinel Filho'!E14</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +582,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Aprovado(a)</t>
+          <t>Comprovado</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -521,6 +610,18 @@
       </c>
       <c r="E2" s="1">
         <f>C2*D2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E3" s="2">
+        <f>SUM(E2:E2)</f>
         <v/>
       </c>
     </row>
@@ -532,13 +633,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +672,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Aprovado(a)</t>
+          <t>Comprovado</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -687,6 +788,18 @@
       </c>
       <c r="E6" s="1">
         <f>C6*D6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="1" t="n"/>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E7" s="2">
+        <f>SUM(E2:E6)</f>
         <v/>
       </c>
     </row>
@@ -698,13 +811,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,7 +850,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Aprovado(a)</t>
+          <t>Comprovado</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -1007,6 +1120,18 @@
       </c>
       <c r="E13" s="1">
         <f>C13*D13</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" s="1" t="n"/>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E14" s="2">
+        <f>SUM(E2:E13)</f>
         <v/>
       </c>
     </row>
